--- a/biology/Botanique/Parc_El_Capricho/Parc_El_Capricho.xlsx
+++ b/biology/Botanique/Parc_El_Capricho/Parc_El_Capricho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc El Capricho est un espace vert et un jardin historique du quartier d'Alameda de Osuna, dans le district de Barajas, au nord-ouest de la ville de Madrid. 
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 14 hectares, il est considéré comme l’un des plus beaux parcs de la ville, avec des monuments importants, la place du Capricho, le palais, l’étang, la place des Empereurs, les fontaines aux dauphins et celles des grenouilles.
 Il mêle les influences anglaise, française et italienne des XVIIIe et XIXe siècles et constitue l’unique jardin romantique de Madrid, avec notamment son labyrinthe d’arbustes, ses bâtiments, placette, ermitage, salon de danse en plus des ruisseaux et étangs qui le parcourent avec leurs cygnes et canards.
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">María Josefa Pimentel (1752–1834), mariée avec le neuvième duc d’Osuna Pedro Téllez-Girón, est au XVIIIe siècle l’une des dames les plus importantes de la noblesse et mécène majeure.
 En 1783, elle achète des terrains hors de Madrid pour y construire une maison et des jardins d’agrément. L’année suivante, l’architecte de la cour Pablo Boutelou, expose un projet initial et les travaux commencent en 1787. Francisco de Goya fut chargé de travailler à une série de Tableaux pour la promenade des ducs d'Osuna aujourd'hui dans des collections privées. L'aménagement ne s'achèvera que 52 ans plus tard, en 1839, cinq ans après la mort de la duchesse.
@@ -583,6 +599,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,7 +626,9 @@
           <t>Soirées du Capricho</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2005 se produisent dans le parc des événements culturels nommés « soirées du Capricho ».
 </t>
